--- a/excel_forecasting_01.xlsx
+++ b/excel_forecasting_01.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\龙京\excel\Tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\神州\tools\excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC4A07-E70D-440A-99EE-457191A425BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EE7DA2-1E6F-4656-A2DF-99076D1FA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{46E3DCBC-55A9-184C-ABDE-2C521400326B}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{46E3DCBC-55A9-184C-ABDE-2C521400326B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="What If" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$I$5:$I$6</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'What If'!$I$5:$I$6</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$I$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'What If'!$I$6</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$I$14</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'What If'!$I$14</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -331,6 +331,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,10 +347,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -903,10 +903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B145A8-39BF-B24C-82DD-3802829934A8}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
@@ -949,27 +952,27 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="18"/>
+      <c r="K4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.8">
       <c r="B5" s="3" t="s">
@@ -993,13 +996,13 @@
         <f>ROUNDUP(17391.3043478257,0)</f>
         <v>17392</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.8">
       <c r="B6" s="3" t="s">
@@ -1021,7 +1024,7 @@
       <c r="I6" s="5">
         <v>2.5</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="13">
         <f>I14</f>
         <v>10000.799999999999</v>
       </c>
@@ -1065,7 +1068,7 @@
       <c r="I7" s="5">
         <v>1.35</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="8">
@@ -1104,7 +1107,7 @@
       <c r="I8" s="4">
         <v>10000</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="8">
         <f>L9-0.5</f>
         <v>2</v>
@@ -1130,7 +1133,7 @@
       <c r="F9" s="6"/>
       <c r="H9" s="3"/>
       <c r="I9" s="6"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="8">
         <v>2.5</v>
       </c>
@@ -1151,15 +1154,15 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="K10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="8">
         <f>L9+0.5</f>
         <v>3</v>
@@ -1195,7 +1198,7 @@
         <f>I5*I6</f>
         <v>43480</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="8">
         <f>L10+0.5</f>
         <v>3.5</v>
@@ -1265,10 +1268,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.8">
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.8">
       <c r="H17" s="3" t="s">
@@ -1280,15 +1283,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="M5:Q5"/>
     <mergeCell ref="K7:K11"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:Q11">
     <cfRule type="colorScale" priority="1">
